--- a/data/financial_statements/sofp/USB.xlsx
+++ b/data/financial_statements/sofp/USB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,2127 +581,2178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>53542000000</v>
+      </c>
+      <c r="C2">
         <v>41652000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>39124000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>44303000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>28905000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>63904000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>44573000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>43501000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>62580000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>44047000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>52392000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>46805000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>22405000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>15272000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>16932000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>18115000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>21453000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>20082000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>19021000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>19246000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>19505000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>20540000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>28964000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>20319000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>15705000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>23664000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>14038000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>10981000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>11147000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>10450000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>17925000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>14072000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>10654000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>6183000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>12636000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>7408000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8477000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>11615000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>6618000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>6932000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>437019000000</v>
+      </c>
+      <c r="C3">
         <v>381990000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>369604000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>360894000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>342984000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>361911000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>341315000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>340576000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>361734000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>351243000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>363522000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>363517000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>320065000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>310431000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>308760000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>304549000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>306346000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>302122000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>298534000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>298016000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>299566000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>299108000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>306052000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>292818000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>289925000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>296731000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>283064000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>275655000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>271317000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>265748000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>271049000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>263362000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>259258000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>251648000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>255396000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>243437000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>242730000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>242594000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>235047000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>233612000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3858000000</v>
+      </c>
+      <c r="C4">
         <v>3155000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3177000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3207000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3305000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3262000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3295000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3388000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3468000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3516000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3616000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3660000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3702000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3673000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3690000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3686000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2457000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2438000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2431000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2441000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2432000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2402000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2413000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2432000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2443000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2449000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2459000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2486000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2513000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2515000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2551000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2575000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2618000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2608000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2614000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2589000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2606000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2608000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2622000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2656000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>161650000000</v>
+      </c>
+      <c r="C5">
         <v>154097000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>160309000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>167247000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>174821000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>149376000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>160288000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>156003000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>136840000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>134032000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>128120000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>123681000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>122613000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>121079000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>115580000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>114398000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>112165000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>110958000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>112402000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>111737000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>112499000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>111790000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>111114000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>110424000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>109275000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>110028000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>108520000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>107025000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>105587000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>105086000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>103311000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>102423000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>101043000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>96905000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>90384000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>85473000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>79855000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>76211000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>74975000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>75286000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>19528000000</v>
+      </c>
+      <c r="C6">
         <v>14729000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14644000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14444000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>14000000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>13524000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>13274000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13367000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12782000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12543000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>12360000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12465000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>12878000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>12615000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>12709000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>12888000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>12761000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>13074000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>12840000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>12828000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>12662000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>12563000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>12577000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>12661000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>12647000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>12244000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>12211000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>12410000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>12711000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>12544000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>12599000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>12396000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>12551000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>12739000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>12759000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>12626000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>12734000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>12628000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>12443000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>12070000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>52750000000</v>
+      </c>
+      <c r="C7">
         <v>47002000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>43647000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>40725000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38174000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>39422000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>40714000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>40041000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>39081000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>39121000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>39034000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>39586000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>36168000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>39873000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>40980000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>40254000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>33645000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>36015000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>35122000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>35097000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>34881000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>33364000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>31688000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>31187000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>31674000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>32682000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>32209000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>31062000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>29725000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>30050000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>29565000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>29477000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>27059000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>27384000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>27912000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>27164000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>26096000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>26640000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>28328000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>31823000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>237786000000</v>
+      </c>
+      <c r="C8">
         <v>218983000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>221777000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>225623000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>230300000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>205584000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>217571000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>212799000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>192171000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>189212000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>183130000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>179392000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>175361000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>177240000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>172959000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>171226000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>161028000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>162485000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>162795000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>162103000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>162474000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>160119000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>157792000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>156704000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>156039000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>157403000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>155399000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>152983000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>150536000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>150195000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>148026000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>146871000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>143271000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>139636000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>133669000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>127852000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>121291000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>118087000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>118368000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>121835000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>674805000000.0001</v>
+      </c>
+      <c r="C9">
         <v>600973000000.0001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>591381000000.0001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>586517000000.0001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>573284000000.0001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>567495000000.0001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>558886000000.0001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>553375000000.0001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>553905000000.0001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>540455000000.0001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>546652000000.0001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>542909000000.0001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>495426000000.0001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>487671000000.0001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>481719000000.0001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>475775000000.0001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>467374000000.0001</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>464607000000.0001</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>461329000000.0001</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>460119000000.0001</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>462040000000.0001</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>459227000000.0001</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>463844000000.0001</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>449522000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>445964000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>454134000000.0001</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>438463000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>428638000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>421853000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>415943000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>419075000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>410233000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>402529000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>391284000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>389065000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>371289000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>364021000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>360681000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>353415000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>355447000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>31216000000</v>
+      </c>
+      <c r="C10">
         <v>25066000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>24963000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>21042000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>11796000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16088000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13413000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12098000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>11766000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13723000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>20595000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>26344000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>23723000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>14579000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>15032000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>15396000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>14139000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>23868000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>18136000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>17703000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>16651000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>15856000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>14412000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>12183000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>13963000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>15695000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>18433000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>23777000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>27877000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>26915000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>27784000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>28226000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>29893000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>30045000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>29101000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>30781000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>27608000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>26128000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>26179000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>27126000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>524976000000.0001</v>
+      </c>
+      <c r="C11">
         <v>471148000000.0001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>467102000000.0001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>461546000000.0001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>456083000000.0001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>442902000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>437182000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>433761000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>429770000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>413217000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>413306000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>394854000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>361916000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>359715000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>353177000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>348087000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>345475000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>331178000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>340080000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>344526000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>347215000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>342589000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>347262000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>336873000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>334590000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>334595000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>317590000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>306348000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>300400000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>295264000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>296848000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>286601000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>282733000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>273097000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>276262000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>260612000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>262123000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>261716000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>251568000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>248012000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>25066000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>24963000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>21042000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>16274000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>16088000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13413000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12098000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>19322000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>13723000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>20595000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>26344000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>556192000000.0001</v>
+      </c>
+      <c r="C13">
         <v>496214000000.0001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>492065000000.0001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>482588000000.0001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>467879000000.0001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>458990000000.0001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>450595000000.0001</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>445859000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>441536000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>426940000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>433901000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>421198000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>385639000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>374294000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>368209000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>363483000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>359614000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>355046000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>358216000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>362229000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>363866000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>358445000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>361674000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>349056000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>348553000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>350290000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>336023000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>330125000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>328277000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>322179000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>324632000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>314827000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>312626000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>303142000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>305363000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>291393000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>289731000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>287844000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>277747000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>275138000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>39829000000</v>
+      </c>
+      <c r="C14">
         <v>32228000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>29408000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>32931000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>32125000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>35671000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>36360000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>37419000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>41297000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>42443000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>42579000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>52298000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>40167000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>41274000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>41008000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>40680000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>41340000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>40894000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>37172000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>33201000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>32259000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>34515000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>37814000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>35948000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>33323000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>37978000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>36941000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>34872000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>32078000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>32504000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>34141000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>35104000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>32260000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>30768000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>25891000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>23774000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>20049000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>18750000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>19724000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>25239000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>27552000000</v>
+      </c>
+      <c r="C15">
         <v>24553000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>20839000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>19330000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>17893000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18456000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18257000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>17789000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>17347000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17877000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>17692000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>17251000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>17137000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>17956000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>18962000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>18926000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>14763000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>17660000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>15684000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>14877000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>16249000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>16916000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>15407000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>16085000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>16155000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>17467000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>17470000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>16248000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>14681000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>15493000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>15071000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>15337000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>13475000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>13545000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>14425000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>13379000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>12434000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>12535000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>14894000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>14223000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>67381000000</v>
+      </c>
+      <c r="C16">
         <v>56781000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>50247000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>52261000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>50018000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>54127000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>54617000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>55208000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>58644000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>60320000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>60271000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>69549000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>57304000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>59230000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>59970000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>59606000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>56103000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>58554000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>52856000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>48078000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>48508000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>51431000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>53221000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>52033000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>49478000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>55445000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>54411000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>51120000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>46759000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>47997000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>49212000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>50441000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>45735000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>44313000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>40316000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>37153000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>32483000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>31285000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>34618000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>39462000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>623573000000.0001</v>
+      </c>
+      <c r="C17">
         <v>552995000000.0001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>542312000000.0001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>534849000000.0001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>517897000000.0001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>513117000000.0001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>505212000000.0001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>501067000000.0001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>500180000000.0001</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>487260000000.0001</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>494172000000.0001</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>490747000000.0001</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>442943000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>433524000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>428179000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>423089000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>415717000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>413600000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>411072000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>410307000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>412374000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>409876000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>414895000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>401089000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>398031000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>405735000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>390434000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>381245000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>375036000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>370176000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>373844000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>365268000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>358361000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>347455000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>345679000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>328546000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>322214000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>319129000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>312365000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>314600000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>8712000000</v>
+      </c>
+      <c r="C18">
         <v>8590000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>8555000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>8515000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8539000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8550000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>8518000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8487000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>8511000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>8516000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>8483000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8452000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>8475000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>8490000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>8465000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>8432000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>8469000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>8479000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>8468000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8438000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>8464000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>8457000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>8425000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>8388000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>8440000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>8429000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>8402000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>8368000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>8376000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>8362000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>8335000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>8315000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>8313000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>8293000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>8264000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>8236000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>8216000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>8188000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>8167000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>8138000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>6808000000</v>
@@ -2599,10 +2764,10 @@
         <v>6808000000</v>
       </c>
       <c r="E19">
+        <v>6808000000</v>
+      </c>
+      <c r="F19">
         <v>6371000000</v>
-      </c>
-      <c r="F19">
-        <v>5968000000</v>
       </c>
       <c r="G19">
         <v>5968000000</v>
@@ -2611,10 +2776,10 @@
         <v>5968000000</v>
       </c>
       <c r="I19">
+        <v>5968000000</v>
+      </c>
+      <c r="J19">
         <v>5983000000</v>
-      </c>
-      <c r="J19">
-        <v>5984000000</v>
       </c>
       <c r="K19">
         <v>5984000000</v>
@@ -2641,7 +2806,7 @@
         <v>5984000000</v>
       </c>
       <c r="S19">
-        <v>5419000000</v>
+        <v>5984000000</v>
       </c>
       <c r="T19">
         <v>5419000000</v>
@@ -2659,7 +2824,7 @@
         <v>5419000000</v>
       </c>
       <c r="Y19">
-        <v>5501000000</v>
+        <v>5419000000</v>
       </c>
       <c r="Z19">
         <v>5501000000</v>
@@ -2674,7 +2839,7 @@
         <v>5501000000</v>
       </c>
       <c r="AD19">
-        <v>4756000000</v>
+        <v>5501000000</v>
       </c>
       <c r="AE19">
         <v>4756000000</v>
@@ -2704,12 +2869,15 @@
         <v>4756000000</v>
       </c>
       <c r="AN19">
+        <v>4756000000</v>
+      </c>
+      <c r="AO19">
         <v>4769000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>21000000</v>
@@ -2828,745 +2996,763 @@
       <c r="AN20">
         <v>21000000</v>
       </c>
+      <c r="AO20">
+        <v>21000000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>71901000000</v>
+      </c>
+      <c r="C21">
         <v>71782000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>70772000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>69987000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>69201000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>68297000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>67039000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>65740000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>64188000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>63391000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>62526000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>62544000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>63186000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>62419000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>61252000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>60092000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>59065000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>57878000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>56742000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>55549000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>54142000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>53023000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>52033000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>51069000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>50151000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>49231000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>48269000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>47267000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>46377000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>45413000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>44434000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>43463000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>42530000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>41543000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>40573000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>39584000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>38667000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>37692000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>36707000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>35720000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>25269000000</v>
+      </c>
+      <c r="C22">
         <v>27188000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>27190000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>27193000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>27271000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>27301000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>27305000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>26443000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>25930000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>25959000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>25962000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>25972000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>24440000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>22224000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>21465000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>20699000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>20188000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>19414000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>18707000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>18047000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>17602000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>16978000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>16332000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>15660000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>15280000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>14844000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>14241000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>13658000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>13125000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>12756000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>12144000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>11564000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>11245000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>10836000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>10232000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>9693000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>9476000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>9174000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>8680000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>8176000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>44424000000</v>
+      </c>
+      <c r="C23">
         <v>41170000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>42261000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>44860000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>49016000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>48410000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>47706000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>46340000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>47742000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>47211000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>46496000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>46178000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>46499000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>48163000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>47556000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>46702000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>45673000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>45023000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>44838000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>44393000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>44247000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>43932000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>43530000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>43014000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>42432000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>42898000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>42528000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>41892000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>41316000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>41011000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>40475000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>40209000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>39412000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>39073000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>38630000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>37987000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>37051000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>36796000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>36294000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>36078000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>51232000000</v>
+      </c>
+      <c r="C24">
         <v>47978000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>49069000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>51668000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>55387000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>54378000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>53674000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>52308000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>53725000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>53195000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>52480000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>52162000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>52483000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>54147000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>53540000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>52686000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>51657000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>51007000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>50257000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>49812000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>49666000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>49351000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>48949000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>48433000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>47933000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>48399000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>48029000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>47393000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>46817000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>45767000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>45231000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>44965000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>44168000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>43829000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>43386000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>42743000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>41807000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>41552000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>41050000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>40847000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>674805000000.0001</v>
+      </c>
+      <c r="C25">
         <v>600973000000.0001</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>591381000000.0001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>586517000000.0001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>573284000000.0001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>567495000000.0001</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>558886000000.0001</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>553375000000.0001</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>553905000000.0001</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>540455000000.0001</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>546652000000.0001</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>542909000000.0001</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>495426000000.0001</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>487671000000.0001</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>481719000000.0001</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>475775000000.0001</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>467374000000.0001</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>464607000000.0001</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>461329000000.0001</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>460119000000.0001</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>462040000000.0001</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>459227000000.0001</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>463844000000.0001</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>449522000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>445964000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>454134000000.0001</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>438463000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>428638000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>421853000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>415943000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>419075000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>410233000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>402529000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>391284000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>389065000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>371289000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>364021000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>360681000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>353415000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>355447000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1531000000</v>
+      </c>
+      <c r="C26">
         <v>1485804000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1485766000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1485672000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1483502000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1482691000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1482603000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1497009000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1507108000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1506391000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1506345000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1506084000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1534155000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1571143000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1584493000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1599037000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1608335000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1623053000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1636082000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1648978000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1655646000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1666767000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1678937000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1691774000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1696912000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1704829000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1718750000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1732006000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1745191000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1753595000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1766926000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1780005000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1785867000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1794843000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1808815000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1821278000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1824748000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1831656000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1844060000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1858486000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>243500</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>243500</v>
@@ -3575,10 +3761,10 @@
         <v>243500</v>
       </c>
       <c r="E27">
+        <v>243500</v>
+      </c>
+      <c r="F27">
         <v>225500</v>
-      </c>
-      <c r="F27">
-        <v>209500</v>
       </c>
       <c r="G27">
         <v>209500</v>
@@ -3617,7 +3803,7 @@
         <v>209500</v>
       </c>
       <c r="S27">
-        <v>186500</v>
+        <v>209500</v>
       </c>
       <c r="T27">
         <v>186500</v>
@@ -3635,7 +3821,7 @@
         <v>186500</v>
       </c>
       <c r="Y27">
-        <v>189900</v>
+        <v>186500</v>
       </c>
       <c r="Z27">
         <v>189900</v>
@@ -3650,378 +3836,390 @@
         <v>189900</v>
       </c>
       <c r="AD27">
+        <v>189900</v>
+      </c>
+      <c r="AE27">
         <v>159900</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>159900</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>159900</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>31704000000</v>
+      </c>
+      <c r="C28">
         <v>33249000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>34425000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>37224000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>41387000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>40854000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>40400000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>38941000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>40943000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>40652000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>40120000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>39697000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>39605000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>41532000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>40831000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>39798000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>38896000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>37933000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>37417000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>36984000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>37004000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>36788000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>36372000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>35772000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>35286000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>36155000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>35818000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>34983000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>34106000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>33223000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>32632000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>32569000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>31617000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>31090000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>30627000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>30117000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>29073000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>28924000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>28607000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>28777000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-13713000000</v>
+      </c>
+      <c r="C29">
         <v>15642000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>15247000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9670000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>19494000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-12145000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5200000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6016000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-1961000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>12119000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>10782000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>31837000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>17762000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>26002000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>24076000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>22565000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>19887000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>20812000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>18151000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>13955000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>12754000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>13975000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>8850000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>15629000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>17618000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>14314000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>22903000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>23891000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>20931000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>22054000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>16216000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>21032000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>21606000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>24585000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>13255000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>16366000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>11572000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>7135000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>13106000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>18307000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>39829000000</v>
+      </c>
+      <c r="C30">
         <v>57294000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>54371000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>53973000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>48399000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>51759000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>49773000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>49517000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>60619000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>56166000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>63174000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>78642000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>40167000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>41274000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>41008000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>40680000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>41340000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>40894000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>37172000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>33201000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>32259000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>34515000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>37814000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>35948000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>33323000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>37978000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>36941000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>34872000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>32078000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>32504000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>34141000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>35104000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>32260000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>30768000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>25891000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>23774000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>20049000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>18750000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>19724000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>25239000000</v>
       </c>
     </row>
